--- a/AoC2022_Day6.xlsx
+++ b/AoC2022_Day6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11117"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/5824734C-FC4E-4A36-B582-D4CF1DF75DED/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1735959cbf115bc/Documents/AoC 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{23CB12EA-11A5-6B42-96A0-568D6311A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB18EB9-5BA3-474A-94DB-964E5B3D7D56}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{23CB12EA-11A5-6B42-96A0-568D6311A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FE416FA-68F5-4679-8DA5-2EC12AEFE9C4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4740" windowWidth="38325" windowHeight="24720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,8 +139,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,30 +443,29 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" cm="1">
-        <f t="array" ref="A2">MIN(IFERROR(_xlfn.BYROW(TRANSPOSE(MID($A$1,_xlfn.SEQUENCE(1,LEN($A$1)-1),4)),_xlfn.LAMBDA(_xlpm.a,IF(LEN(_xlfn.CONCAT(CHAR(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,4),1)),TRUE))))=4,FIND(_xlpm.a,$A$1),""))),50000))+3</f>
+        <f t="array" ref="A2:B2">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,4096),_xlpm.y,14,_xlpm.z,A1,_xlfn.HSTACK(MIN(IFERROR(_xlfn.BYCOL(MID(_xlpm.z,_xlpm.x,4),_xlfn.LAMBDA(_xlpm.a,IF(COUNT(_xlfn.UNIQUE(CODE(MID(_xlpm.a,{1,2,3,4},1)),TRUE))=4,FIND(_xlpm.a,_xlpm.z),""))),""))+3,MIN(IFERROR(_xlfn.BYCOL(MID(_xlpm.z,_xlpm.x,_xlpm.y),_xlfn.LAMBDA(_xlpm.a,IF(COUNT(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,_xlpm.y),1)),TRUE))=_xlpm.y,FIND(_xlpm.a,_xlpm.z),""))),""))+13))</f>
         <v>1287</v>
       </c>
-      <c r="B2" cm="1">
-        <f t="array" ref="B2">MIN(IFERROR(_xlfn.BYROW(TRANSPOSE(MID($A$1,_xlfn.SEQUENCE(1,LEN($A$1)-1),14)),_xlfn.LAMBDA(_xlpm.a,IF(LEN(_xlfn.CONCAT(CHAR(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,14),1)),TRUE))))=14,FIND(_xlpm.a,$A$1),""))),50000))+13</f>
+      <c r="B2">
         <v>3716</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,15 +483,15 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -499,146 +502,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A28">TRANSPOSE(MID(A1,_xlfn.SEQUENCE(1,LEN(A1)-1),4))</f>
         <v>bvwb</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" ref="B2">MIN(IFERROR(_xlfn.BYROW(_xlfn.ANCHORARRAY(A2),_xlfn.LAMBDA(_xlpm.a,IF(LEN(_xlfn.CONCAT(CHAR(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,4),1)),TRUE))))=4,FIND(_xlpm.a,$A$1),""))),50000))+3</f>
+        <f t="array" ref="B2:C2">_xlfn.LET(_xlpm.x,_xlfn.SEQUENCE(1,4096),_xlpm.y,14,_xlpm.z,A1,_xlfn.HSTACK(MIN(IFERROR(_xlfn.BYCOL(MID(_xlpm.z,_xlpm.x,4),_xlfn.LAMBDA(_xlpm.a,IF(COUNT(_xlfn.UNIQUE(CODE(MID(_xlpm.a,{1,2,3,4},1)),TRUE))=4,FIND(_xlpm.a,_xlpm.z),""))),""))+3,MIN(IFERROR(_xlfn.BYCOL(MID(_xlpm.z,_xlpm.x,_xlpm.y),_xlfn.LAMBDA(_xlpm.a,IF(COUNT(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,_xlpm.y),1)),TRUE))=_xlpm.y,FIND(_xlpm.a,_xlpm.z),""))),""))+13))</f>
         <v>5</v>
       </c>
-      <c r="C2" cm="1">
-        <f t="array" ref="C2">MIN(IFERROR(_xlfn.BYROW(TRANSPOSE(MID($A$1,_xlfn.SEQUENCE(1,LEN($A$1)-1),14)),_xlfn.LAMBDA(_xlpm.a,IF(LEN(_xlfn.CONCAT(CHAR(_xlfn.UNIQUE(CODE(MID(_xlpm.a,_xlfn.SEQUENCE(1,14),1)),TRUE))))=14,FIND(_xlpm.a,$A$1),""))),50000))+13</f>
+      <c r="C2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>vwbj</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>wbjp</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>bjpl</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>jplb</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>plbg</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>lbgv</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>bgvb</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>gvbh</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>vbhs</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>bhsr</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>hsrl</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>srlp</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>rlpg</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>lpgd</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>pgdm</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>gdmj</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>dmjq</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>mjqw</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>jqwf</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>qwft</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>wftv</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>ftvn</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>tvnc</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>vncz</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>ncz</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>cz</v>
       </c>
